--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ccl24-Ccr2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ccl24-Ccr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +534,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.499254032490239</v>
+        <v>0.8265333333333333</v>
       </c>
       <c r="H2">
-        <v>0.499254032490239</v>
+        <v>2.4796</v>
       </c>
       <c r="I2">
-        <v>0.1982025881112918</v>
+        <v>0.2856046655980104</v>
       </c>
       <c r="J2">
-        <v>0.1982025881112918</v>
+        <v>0.2856046655980104</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.06386428988939449</v>
+        <v>0.1067053333333333</v>
       </c>
       <c r="N2">
-        <v>0.06386428988939449</v>
+        <v>0.320116</v>
       </c>
       <c r="O2">
-        <v>0.0003935133068412217</v>
+        <v>0.0004703131782773351</v>
       </c>
       <c r="P2">
-        <v>0.0003935133068412217</v>
+        <v>0.000470313178277335</v>
       </c>
       <c r="Q2">
-        <v>0.0318845042594058</v>
+        <v>0.08819551484444445</v>
       </c>
       <c r="R2">
-        <v>0.0318845042594058</v>
+        <v>0.7937596336</v>
       </c>
       <c r="S2">
-        <v>7.799535587216307E-05</v>
+        <v>0.0001343236380082358</v>
       </c>
       <c r="T2">
-        <v>7.799535587216307E-05</v>
+        <v>0.0001343236380082357</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,55 +593,55 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.499254032490239</v>
+        <v>0.8265333333333333</v>
       </c>
       <c r="H3">
-        <v>0.499254032490239</v>
+        <v>2.4796</v>
       </c>
       <c r="I3">
-        <v>0.1982025881112918</v>
+        <v>0.2856046655980104</v>
       </c>
       <c r="J3">
-        <v>0.1982025881112918</v>
+        <v>0.2856046655980104</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>55.795630069319</v>
+        <v>0.08113566666666668</v>
       </c>
       <c r="N3">
-        <v>55.795630069319</v>
+        <v>0.243407</v>
       </c>
       <c r="O3">
-        <v>0.3437965556947868</v>
+        <v>0.0003576126147551242</v>
       </c>
       <c r="P3">
-        <v>0.3437965556947868</v>
+        <v>0.0003576126147551241</v>
       </c>
       <c r="Q3">
-        <v>27.85619330744115</v>
+        <v>0.06706133302222222</v>
       </c>
       <c r="R3">
-        <v>27.85619330744115</v>
+        <v>0.6035519972000001</v>
       </c>
       <c r="S3">
-        <v>0.06814136712245464</v>
+        <v>0.0001021358312507674</v>
       </c>
       <c r="T3">
-        <v>0.06814136712245464</v>
+        <v>0.0001021358312507673</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,60 +655,60 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.499254032490239</v>
+        <v>0.8265333333333333</v>
       </c>
       <c r="H4">
-        <v>0.499254032490239</v>
+        <v>2.4796</v>
       </c>
       <c r="I4">
-        <v>0.1982025881112918</v>
+        <v>0.2856046655980104</v>
       </c>
       <c r="J4">
-        <v>0.1982025881112918</v>
+        <v>0.2856046655980104</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>106.433085787676</v>
+        <v>57.87945166666666</v>
       </c>
       <c r="N4">
-        <v>106.433085787676</v>
+        <v>173.638355</v>
       </c>
       <c r="O4">
-        <v>0.6558099309983719</v>
+        <v>0.2551087937213329</v>
       </c>
       <c r="P4">
-        <v>0.6558099309983719</v>
+        <v>0.2551087937213328</v>
       </c>
       <c r="Q4">
-        <v>53.13714726987679</v>
+        <v>47.83929611755555</v>
       </c>
       <c r="R4">
-        <v>53.13714726987679</v>
+        <v>430.553665058</v>
       </c>
       <c r="S4">
-        <v>0.129983225632965</v>
+        <v>0.0728602617218931</v>
       </c>
       <c r="T4">
-        <v>0.129983225632965</v>
+        <v>0.07286026172189308</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -711,60 +717,60 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.01965370351725</v>
+        <v>0.8265333333333333</v>
       </c>
       <c r="H5">
-        <v>2.01965370351725</v>
+        <v>2.4796</v>
       </c>
       <c r="I5">
-        <v>0.8017974118887081</v>
+        <v>0.2856046655980104</v>
       </c>
       <c r="J5">
-        <v>0.8017974118887081</v>
+        <v>0.2856046655980104</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06386428988939449</v>
+        <v>168.748281</v>
       </c>
       <c r="N5">
-        <v>0.06386428988939449</v>
+        <v>506.244843</v>
       </c>
       <c r="O5">
-        <v>0.0003935133068412217</v>
+        <v>0.7437729482370158</v>
       </c>
       <c r="P5">
-        <v>0.0003935133068412217</v>
+        <v>0.7437729482370156</v>
       </c>
       <c r="Q5">
-        <v>0.1289837495976149</v>
+        <v>139.4760791892</v>
       </c>
       <c r="R5">
-        <v>0.1289837495976149</v>
+        <v>1255.2847127028</v>
       </c>
       <c r="S5">
-        <v>0.0003155179509690586</v>
+        <v>0.2124250241620792</v>
       </c>
       <c r="T5">
-        <v>0.0003155179509690586</v>
+        <v>0.2124250241620791</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -773,55 +779,55 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.01965370351725</v>
+        <v>0.8265333333333333</v>
       </c>
       <c r="H6">
-        <v>2.01965370351725</v>
+        <v>2.4796</v>
       </c>
       <c r="I6">
-        <v>0.8017974118887081</v>
+        <v>0.2856046655980104</v>
       </c>
       <c r="J6">
-        <v>0.8017974118887081</v>
+        <v>0.2856046655980104</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>55.795630069319</v>
+        <v>0.065871</v>
       </c>
       <c r="N6">
-        <v>55.795630069319</v>
+        <v>0.197613</v>
       </c>
       <c r="O6">
-        <v>0.3437965556947868</v>
+        <v>0.0002903322486189976</v>
       </c>
       <c r="P6">
-        <v>0.3437965556947868</v>
+        <v>0.0002903322486189975</v>
       </c>
       <c r="Q6">
-        <v>112.6878509095786</v>
+        <v>0.0544445772</v>
       </c>
       <c r="R6">
-        <v>112.6878509095786</v>
+        <v>0.4900011948</v>
       </c>
       <c r="S6">
-        <v>0.2756551885723322</v>
+        <v>8.292024477914723E-05</v>
       </c>
       <c r="T6">
-        <v>0.2756551885723322</v>
+        <v>8.292024477914719E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,55 +841,303 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.067443666666667</v>
+      </c>
+      <c r="H7">
+        <v>6.202331</v>
+      </c>
+      <c r="I7">
+        <v>0.7143953344019897</v>
+      </c>
+      <c r="J7">
+        <v>0.7143953344019895</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.1067053333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.320116</v>
+      </c>
+      <c r="O7">
+        <v>0.0004703131782773351</v>
+      </c>
+      <c r="P7">
+        <v>0.000470313178277335</v>
+      </c>
+      <c r="Q7">
+        <v>0.2206072655995556</v>
+      </c>
+      <c r="R7">
+        <v>1.985465390396</v>
+      </c>
+      <c r="S7">
+        <v>0.0003359895402690994</v>
+      </c>
+      <c r="T7">
+        <v>0.0003359895402690993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.01965370351725</v>
-      </c>
-      <c r="H7">
-        <v>2.01965370351725</v>
-      </c>
-      <c r="I7">
-        <v>0.8017974118887081</v>
-      </c>
-      <c r="J7">
-        <v>0.8017974118887081</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>106.433085787676</v>
-      </c>
-      <c r="N7">
-        <v>106.433085787676</v>
-      </c>
-      <c r="O7">
-        <v>0.6558099309983719</v>
-      </c>
-      <c r="P7">
-        <v>0.6558099309983719</v>
-      </c>
-      <c r="Q7">
-        <v>214.957975887849</v>
-      </c>
-      <c r="R7">
-        <v>214.957975887849</v>
-      </c>
-      <c r="S7">
-        <v>0.5258267053654069</v>
-      </c>
-      <c r="T7">
-        <v>0.5258267053654069</v>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.067443666666667</v>
+      </c>
+      <c r="H8">
+        <v>6.202331</v>
+      </c>
+      <c r="I8">
+        <v>0.7143953344019897</v>
+      </c>
+      <c r="J8">
+        <v>0.7143953344019895</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.08113566666666668</v>
+      </c>
+      <c r="N8">
+        <v>0.243407</v>
+      </c>
+      <c r="O8">
+        <v>0.0003576126147551242</v>
+      </c>
+      <c r="P8">
+        <v>0.0003576126147551241</v>
+      </c>
+      <c r="Q8">
+        <v>0.1677434201907778</v>
+      </c>
+      <c r="R8">
+        <v>1.509690781717</v>
+      </c>
+      <c r="S8">
+        <v>0.0002554767835043569</v>
+      </c>
+      <c r="T8">
+        <v>0.0002554767835043567</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.067443666666667</v>
+      </c>
+      <c r="H9">
+        <v>6.202331</v>
+      </c>
+      <c r="I9">
+        <v>0.7143953344019897</v>
+      </c>
+      <c r="J9">
+        <v>0.7143953344019895</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>57.87945166666666</v>
+      </c>
+      <c r="N9">
+        <v>173.638355</v>
+      </c>
+      <c r="O9">
+        <v>0.2551087937213329</v>
+      </c>
+      <c r="P9">
+        <v>0.2551087937213328</v>
+      </c>
+      <c r="Q9">
+        <v>119.6625057783894</v>
+      </c>
+      <c r="R9">
+        <v>1076.962552005505</v>
+      </c>
+      <c r="S9">
+        <v>0.1822485319994398</v>
+      </c>
+      <c r="T9">
+        <v>0.1822485319994397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.067443666666667</v>
+      </c>
+      <c r="H10">
+        <v>6.202331</v>
+      </c>
+      <c r="I10">
+        <v>0.7143953344019897</v>
+      </c>
+      <c r="J10">
+        <v>0.7143953344019895</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>168.748281</v>
+      </c>
+      <c r="N10">
+        <v>506.244843</v>
+      </c>
+      <c r="O10">
+        <v>0.7437729482370158</v>
+      </c>
+      <c r="P10">
+        <v>0.7437729482370156</v>
+      </c>
+      <c r="Q10">
+        <v>348.877564814337</v>
+      </c>
+      <c r="R10">
+        <v>3139.898083329033</v>
+      </c>
+      <c r="S10">
+        <v>0.5313479240749366</v>
+      </c>
+      <c r="T10">
+        <v>0.5313479240749364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.067443666666667</v>
+      </c>
+      <c r="H11">
+        <v>6.202331</v>
+      </c>
+      <c r="I11">
+        <v>0.7143953344019897</v>
+      </c>
+      <c r="J11">
+        <v>0.7143953344019895</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.065871</v>
+      </c>
+      <c r="N11">
+        <v>0.197613</v>
+      </c>
+      <c r="O11">
+        <v>0.0002903322486189976</v>
+      </c>
+      <c r="P11">
+        <v>0.0002903322486189975</v>
+      </c>
+      <c r="Q11">
+        <v>0.136184581767</v>
+      </c>
+      <c r="R11">
+        <v>1.225661235903</v>
+      </c>
+      <c r="S11">
+        <v>0.0002074120038398504</v>
+      </c>
+      <c r="T11">
+        <v>0.0002074120038398503</v>
       </c>
     </row>
   </sheetData>
